--- a/biology/Zoologie/Chèvre_du_Don/Chèvre_du_Don.xlsx
+++ b/biology/Zoologie/Chèvre_du_Don/Chèvre_du_Don.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Don</t>
+          <t>Chèvre_du_Don</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La chèvre du Don est une race caprine originaire de Russie, spécialement de la région du Don[1].
+La chèvre du Don est une race caprine originaire de Russie, spécialement de la région du Don.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Don</t>
+          <t>Chèvre_du_Don</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une expédition étudie en 1933-1934 les races de chèvre présentes dans la région de la Basse-Volga. C'est alors que commencent des sélections plus systématiques d'une race de taille moyenne de constitution solide avec une très bonne laine et un solide sous-pelage[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une expédition étudie en 1933-1934 les races de chèvre présentes dans la région de la Basse-Volga. C'est alors que commencent des sélections plus systématiques d'une race de taille moyenne de constitution solide avec une très bonne laine et un solide sous-pelage. 
 Cette race est fort répandue dans le bassin du Don et la région de Volgograd.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_du_Don</t>
+          <t>Chèvre_du_Don</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bélier pèse de 65 kg à 85 kg, et la chèvre de 35 kg à 40 kg. Son pelage est noir, parfois blanc. Le chevreau pèse 2 kg à la naissance, 27 kg à un an et demi et 30 kg à deux ans et demi. Cette race est une très bonne race lainière (500 à 1000 g de laine pour la femelle) et assez bonne laitière (140 litres pour cinq mois). Elle est très prolifique, 145-150 chevreaux pour cent chèvres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bélier pèse de 65 kg à 85 kg, et la chèvre de 35 kg à 40 kg. Son pelage est noir, parfois blanc. Le chevreau pèse 2 kg à la naissance, 27 kg à un an et demi et 30 kg à deux ans et demi. Cette race est une très bonne race lainière (500 à 1000 g de laine pour la femelle) et assez bonne laitière (140 litres pour cinq mois). Elle est très prolifique, 145-150 chevreaux pour cent chèvres.
 </t>
         </is>
       </c>
